--- a/backend/fms_core/tests/valid_templates/Experiment_run_MGI_v5_3_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Experiment_run_MGI_v5_3_0.xlsx
@@ -2050,7 +2050,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S996"/>
+  <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -2238,81 +2238,86 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f aca="false">IF(B7&lt;&gt;"", B7, "")</f>
-        <v>containerMGI</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
       <c r="C8" s="2" t="str">
         <f aca="false">IF(B8&lt;&gt;"", B8, "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="N8" s="14"/>
+        <v>containerMGI</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -2442,7 +2447,7 @@
       <c r="K16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
@@ -3731,7 +3736,7 @@
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="13"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="13"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -3789,11 +3794,18 @@
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="C101" s="2" t="str">
+        <f aca="false">IF(B101&lt;&gt;"", B101, "")</f>
+        <v/>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="N101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
@@ -4386,8 +4398,8 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
@@ -11850,37 +11862,46 @@
       <c r="F996" s="2"/>
       <c r="G996" s="2"/>
     </row>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+      <c r="G997" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H5:J5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C100">
+  <conditionalFormatting sqref="C8:C101">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>SUMPRODUCT(--ISNUMBER(SEARCH(MID(C7, ROW(INDIRECT("1:" &amp; LEN(C7))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789-_")))&lt;&gt;LEN(C7)</formula>
+      <formula>SUMPRODUCT(--ISNUMBER(SEARCH(MID(C8, ROW(INDIRECT("1:" &amp; LEN(C8))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789-_")))&lt;&gt;LEN(C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D101" type="list">
       <formula1>Index!$E$2:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J8:J101" type="list">
       <formula1>Index!$I$2:$I$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I8:I101" type="list">
       <formula1>Index!$D$2:$D$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N7:N100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N8:N101" type="list">
       <formula1>Index!$L$2:$L$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E8:E101" type="list">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(INDEX(Index!$F$2:$F$4, MATCH(C7, Index!$E$2:$E$4, 0), 1), " ", "_"), "-", "_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K7:K100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K8:K101" type="list">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(INDEX(Index!$J$2:$J$4, MATCH(C7, Index!$E$2:$E$4, 0), 1), " ", "_"), "-", "_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11901,7 +11922,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -11992,39 +12013,40 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -12150,8 +12172,8 @@
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -12160,13 +12182,13 @@
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -12967,19 +12989,21 @@
       <c r="I100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="3"/>
       <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="E102" s="3"/>
       <c r="G102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20166,29 +20190,37 @@
       <c r="F1000" s="2"/>
       <c r="G1000" s="3"/>
     </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D102" type="list">
       <formula1>Index!$B$2:$B$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A100" type="list">
-      <formula1>Experiments!$A$7:$A$106</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A101" type="list">
+      <formula1>Experiments!$A$8:$A$107</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H100" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H101" type="none">
       <formula1>Index!$A$2:$A$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I100" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I101" type="list">
       <formula1>Index!$M$2:$M$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E102" type="none">
       <formula1>Index!$B$2:$B$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:G1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G1001" type="list">
       <formula1>"1,2,3,4,A01,A02,A03,A04"</formula1>
       <formula2>0</formula2>
     </dataValidation>
